--- a/数据整理/stocks/港股/01066-威高股份.xlsx
+++ b/数据整理/stocks/港股/01066-威高股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>008969</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>睿远均衡价值三年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>137.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3428</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.09</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>9.18</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5961</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009683</t>
+          <t>501092</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富创新增长一年定期开放混合A</t>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>64.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6714</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009684</t>
+          <t>009683</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富创新增长一年定期开放混合C</t>
+          <t>汇添富创新增长一年定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.89</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.83</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0487</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501092</t>
+          <t>005303</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德瑞思三年封闭运作混合</t>
+          <t>嘉实医药健康股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.08</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9740</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005303</t>
+          <t>009007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票A</t>
+          <t>兴全沪港深两年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.28</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8237</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005304</t>
+          <t>008970</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票C</t>
+          <t>睿远均衡价值三年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.28</t>
+          <t>15.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6967</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008969</t>
+          <t>005304</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合A</t>
+          <t>嘉实医药健康股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008970</t>
+          <t>009684</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合C</t>
+          <t>汇添富创新增长一年定期开放混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>080006</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长盛环球行业混合(QDII)</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009007</t>
+          <t>080006</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>兴全沪港深两年持有期混合</t>
+          <t>长盛环球行业混合(QDII)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005303</t>
+          <t>008969</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票A</t>
+          <t>睿远均衡价值三年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>152.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4676</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005304</t>
+          <t>900010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票C</t>
+          <t>中信卓越成长两年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>140.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2422</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010902</t>
+          <t>900090</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合A</t>
+          <t>中信卓越成长两年持有期混合B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>40.82</t>
+          <t>103.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010903</t>
+          <t>010902</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合C</t>
+          <t>博时成长领航灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>115.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>40.82</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.15</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6458</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -968,15 +1138,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.21</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>9.76</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9091</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>501092</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>62.26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8616</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501092</t>
+          <t>009683</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银施罗德瑞思三年封闭运作混合</t>
+          <t>汇添富创新增长一年定期开放混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>83.15</t>
+          <t>28.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2776</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160922</t>
+          <t>008970</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>睿远均衡价值三年持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>15.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6409</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008969</t>
+          <t>010903</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合A</t>
+          <t>博时成长领航灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.45</t>
+          <t>17.68</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5569</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008970</t>
+          <t>005303</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合C</t>
+          <t>嘉实医药健康股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.45</t>
+          <t>15.16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5185</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009683</t>
+          <t>900100</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富创新增长一年定期开放混合A</t>
+          <t>中信卓越成长两年持有期混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>84.60</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3512</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1164,15 +1404,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>84.60</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>4.54</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>900010</t>
+          <t>005304</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合A</t>
+          <t>嘉实医药健康股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>900090</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合B</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>900100</t>
+          <t>160922</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合C</t>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01066-威高股份.xlsx
+++ b/数据整理/stocks/港股/01066-威高股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>167.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7914</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>142.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9557</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>106.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.4534</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>108.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1625</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0833</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4235</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1368</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7934</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6962</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5821</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5685</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5023</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3403</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01066-威高股份.xlsx
+++ b/数据整理/stocks/港股/01066-威高股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2398,4 +2399,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2666</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6673</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0943</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4180</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3868</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01066-威高股份.xlsx
+++ b/数据整理/stocks/港股/01066-威高股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2797,4 +2798,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01066-威高股份.xlsx
+++ b/数据整理/stocks/港股/01066-威高股份.xlsx
@@ -2822,12 +2822,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/01066-威高股份.xlsx
+++ b/数据整理/stocks/港股/01066-威高股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2806,7 +2807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2817,17 +2818,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2837,14 +2858,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.13</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2853,14 +2896,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>32.14</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="4">
@@ -2869,14 +3002,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>28.33</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="5">
@@ -2885,13 +3018,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>14.43</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01066-威高股份.xlsx
+++ b/数据整理/stocks/港股/01066-威高股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2939,7 +2940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2950,17 +2951,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2970,14 +2991,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4734</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2986,14 +3029,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>7.13</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -3002,14 +3135,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>32.14</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="5">
@@ -3018,14 +3151,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>28.33</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="6">
@@ -3034,13 +3167,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>14.43</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01066-威高股份.xlsx
+++ b/数据整理/stocks/港股/01066-威高股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.52</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7.13</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>32.14</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>28.33</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>14.43</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>010902</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时恒生医疗保健ETF（QDII）</t>
+          <t>博时成长领航灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>60.14</t>
+          <t>46.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.78</t>
+          <t>81.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4734</t>
+          <t>2.3462</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,378 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6456</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>159892</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>华夏恒生香港上市生物科技ETF（QDII）</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>96.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0450</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513280</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>100.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513200</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159776</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159718</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013182</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013181</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>38.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -781,22 +1140,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.35</t>
+          <t>60.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.89</t>
+          <t>96.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5627</t>
+          <t>1.4734</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -819,22 +1178,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>96.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0397</t>
+          <t>0.0450</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -847,6 +1206,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1244,7 +1735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2098,7 +2589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2724,7 +3215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01066-威高股份.xlsx
+++ b/数据整理/stocks/港股/01066-威高股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>4.61</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.52</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>7.13</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>32.14</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>28.33</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>14.43</v>
       </c>
     </row>
@@ -600,6 +617,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9422</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8083</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2174</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4901</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4126</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513280</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159776</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159718</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1066,138 +1709,6 @@
       </c>
       <c r="H12" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513060</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时恒生医疗保健ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>60.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.78</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4734</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159892</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>96.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0450</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1272,22 +1783,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.35</t>
+          <t>60.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.89</t>
+          <t>96.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5627</t>
+          <t>1.4734</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1310,22 +1821,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>96.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0397</t>
+          <t>0.0450</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1338,6 +1849,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1735,7 +2378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2589,7 +3232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3215,7 +3858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
